--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D150E7C7-C0C5-4A49-B1BD-F880E6E37230}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C3BA1D0-E9C9-C74F-8DD7-4A4336BB0BE5}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>nama</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>992323232</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>nlp</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>tech</t>
   </si>
 </sst>
 </file>
@@ -443,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79F51F0-E72D-0946-A5F2-57911D67FA2F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,7 +466,7 @@
     <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +482,20 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -487,8 +511,20 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -504,8 +540,20 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>85</v>
+      </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -520,6 +568,18 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C3BA1D0-E9C9-C74F-8DD7-4A4336BB0BE5}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B088E914-6FE1-4E40-A14D-66FE725EA3D5}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>nama</t>
   </si>
   <si>
-    <t>Shi Doel</t>
-  </si>
-  <si>
-    <t>Univ Doel</t>
-  </si>
-  <si>
-    <t>Teknik</t>
-  </si>
-  <si>
-    <t>nim</t>
-  </si>
-  <si>
     <t>prodi</t>
   </si>
   <si>
@@ -62,33 +50,6 @@
     <t>univ</t>
   </si>
   <si>
-    <t>082225700071</t>
-  </si>
-  <si>
-    <t>Shi Jack</t>
-  </si>
-  <si>
-    <t>Univ Jack</t>
-  </si>
-  <si>
-    <t>Psio</t>
-  </si>
-  <si>
-    <t>99239292</t>
-  </si>
-  <si>
-    <t>Shi Liem</t>
-  </si>
-  <si>
-    <t>Univ Liem</t>
-  </si>
-  <si>
-    <t>FKIP</t>
-  </si>
-  <si>
-    <t>992323232</t>
-  </si>
-  <si>
     <t>ds</t>
   </si>
   <si>
@@ -99,15 +60,211 @@
   </si>
   <si>
     <t>tech</t>
+  </si>
+  <si>
+    <t>id_msib</t>
+  </si>
+  <si>
+    <t>Adi Mulya Hyoga Pramesta</t>
+  </si>
+  <si>
+    <t>Ahmad Imam Khofi</t>
+  </si>
+  <si>
+    <t>Ahmad Malikhul Khakim</t>
+  </si>
+  <si>
+    <t>Bagus Rifqi Ridho</t>
+  </si>
+  <si>
+    <t>Bima Aji Maulana</t>
+  </si>
+  <si>
+    <t>Christopher Prima</t>
+  </si>
+  <si>
+    <t>Dhiya Arwa Fadhila</t>
+  </si>
+  <si>
+    <t>Dinda Arum</t>
+  </si>
+  <si>
+    <t>Dinda Regina Nofiar</t>
+  </si>
+  <si>
+    <t>Faishal Bahy</t>
+  </si>
+  <si>
+    <t>Faqih Azka Ash-Shidqi</t>
+  </si>
+  <si>
+    <t>Fiyandhika Ridho Pratama</t>
+  </si>
+  <si>
+    <t>Hanin Atika Nurussyifa</t>
+  </si>
+  <si>
+    <t>Khomsatun Natasyah</t>
+  </si>
+  <si>
+    <t>Lathifah Melita Santi</t>
+  </si>
+  <si>
+    <t>Latifa Rachma</t>
+  </si>
+  <si>
+    <t>Michael Setiawan</t>
+  </si>
+  <si>
+    <t>Muhammad Raihan Firmansyah</t>
+  </si>
+  <si>
+    <t>Muhammad Ridho Heralti</t>
+  </si>
+  <si>
+    <t>Muhammad Rifki Kurniawan</t>
+  </si>
+  <si>
+    <t>Mutia Angraini</t>
+  </si>
+  <si>
+    <t>Nadiyah Saidah</t>
+  </si>
+  <si>
+    <t>Nik Nor Allia</t>
+  </si>
+  <si>
+    <t>Nur Cahyo Tio Nugroho</t>
+  </si>
+  <si>
+    <t>Rico Kurniawan</t>
+  </si>
+  <si>
+    <t>Rizqy Ichlasul Amalia</t>
+  </si>
+  <si>
+    <t>Rousyan Afkar Irbah</t>
+  </si>
+  <si>
+    <t>Sofi Anggi Astuti</t>
+  </si>
+  <si>
+    <t>Wiyenti Halim</t>
+  </si>
+  <si>
+    <t>Universitas Dian Nuswantoro</t>
+  </si>
+  <si>
+    <t>Universitas Muhammadiyah Semarang</t>
+  </si>
+  <si>
+    <t>Universitas Negeri Semarang</t>
+  </si>
+  <si>
+    <t>Politeknik Harapan Bersama</t>
+  </si>
+  <si>
+    <t>Universitas Sebelas Maret</t>
+  </si>
+  <si>
+    <t>Universitas Amikom Purwokerto</t>
+  </si>
+  <si>
+    <t>Universitas Muhammadiyah Surakarta</t>
+  </si>
+  <si>
+    <t>Universitas Amikom Yogyakarta</t>
+  </si>
+  <si>
+    <t>Universitas Diponegoro</t>
+  </si>
+  <si>
+    <t>Universitas Jenderal Soedirman</t>
+  </si>
+  <si>
+    <t>Universitas Pembangunan Nasional Veteran Yogyakarta</t>
+  </si>
+  <si>
+    <t>Universitas Alma Ata</t>
+  </si>
+  <si>
+    <t>Teknik Informatika</t>
+  </si>
+  <si>
+    <t>Teknik Elektro</t>
+  </si>
+  <si>
+    <t>Psikologi</t>
+  </si>
+  <si>
+    <t>Manajemen Bisnis</t>
+  </si>
+  <si>
+    <t>Teknologi Informasi</t>
+  </si>
+  <si>
+    <t>Informatika</t>
+  </si>
+  <si>
+    <t>Manajemen</t>
+  </si>
+  <si>
+    <t>Sistem Informasi</t>
+  </si>
+  <si>
+    <t>Akuntansi Perpajakan</t>
+  </si>
+  <si>
+    <t>Pendidikan Geografi</t>
+  </si>
+  <si>
+    <t>Pendidikan Bahasa Inggris</t>
+  </si>
+  <si>
+    <t>Sejarah</t>
+  </si>
+  <si>
+    <t>Teknik Komputer</t>
+  </si>
+  <si>
+    <t>Matematika</t>
+  </si>
+  <si>
+    <t>Ilmu Administrasi Bisnis</t>
+  </si>
+  <si>
+    <t>Statistika</t>
+  </si>
+  <si>
+    <t>Ilmu Sistem Informasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -134,9 +291,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,15 +617,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79F51F0-E72D-0946-A5F2-57911D67FA2F}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -471,115 +636,985 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3725349</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <v>81392079914</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:I4" ca="1" si="0">RANDBETWEEN(60,100)</f>
+        <v>99</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3801595</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4">
+        <v>89524253715</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3832337</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3">
+        <v>85712555526</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3763981</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>85161382552</v>
+      </c>
+      <c r="F5">
+        <f ca="1">RANDBETWEEN(60,100)</f>
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:I20" ca="1" si="1">RANDBETWEEN(60,100)</f>
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3852379</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3">
+        <v>87714476866</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:I30" ca="1" si="2">RANDBETWEEN(60,100)</f>
+        <v>70</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3845534</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3">
+        <v>82243039103</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3841158</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="5">
+        <v>895422462944</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3788761</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="3">
+        <v>82185511649</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B10" s="2">
+        <v>3346764</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3">
+        <v>85156045861</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B11" s="2">
+        <v>3447291</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="4">
+        <v>82260368898</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B12" s="2">
+        <v>3841917</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3">
+        <v>82118045113</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2033321</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c r="B13" s="2">
+        <v>3854585</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
+        <v>82348877452</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3623287</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3">
+        <v>85703598708</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3439592</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3">
+        <v>85866040215</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3183443</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3">
+        <v>82135254500</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="1"/>
         <v>80</v>
       </c>
-      <c r="G2">
-        <v>90</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
+      <c r="I16">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3761118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3">
+        <v>81548882108</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3842035</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3">
+        <v>89673942141</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>223910123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+      <c r="I18">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3762472</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3">
+        <v>85803737732</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3843259</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3">
+        <v>85760004087</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3813513</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3">
+        <v>85291378856</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
-      <c r="G3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3643895</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3">
+        <v>81328256132</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3806913</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="6">
+        <v>895325028877</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3849134</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3">
+        <v>85718802418</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3735191</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="3">
+        <v>81330435792</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3842455</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="3">
+        <v>83162498235</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3299393</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3">
+        <v>89506117922</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3623281</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="3">
+        <v>81213145463</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="2"/>
         <v>80</v>
       </c>
-      <c r="H3">
-        <v>85</v>
-      </c>
-      <c r="I3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>88292923</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3830944</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4">
+        <v>89647681473</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3510247</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="6">
+        <v>895399776240</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="2"/>
         <v>70</v>
-      </c>
-      <c r="G4">
-        <v>80</v>
-      </c>
-      <c r="H4">
-        <v>75</v>
-      </c>
-      <c r="I4">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B088E914-6FE1-4E40-A14D-66FE725EA3D5}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99DF94B-2E7E-9C45-8850-84AFB65DE6E6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,15 +41,18 @@
     <t>nama</t>
   </si>
   <si>
+    <t>id_msib</t>
+  </si>
+  <si>
+    <t>univ</t>
+  </si>
+  <si>
     <t>prodi</t>
   </si>
   <si>
     <t>nohp</t>
   </si>
   <si>
-    <t>univ</t>
-  </si>
-  <si>
     <t>ds</t>
   </si>
   <si>
@@ -62,36 +65,75 @@
     <t>tech</t>
   </si>
   <si>
-    <t>id_msib</t>
-  </si>
-  <si>
     <t>Adi Mulya Hyoga Pramesta</t>
   </si>
   <si>
+    <t>Universitas Dian Nuswantoro</t>
+  </si>
+  <si>
+    <t>Teknik Informatika</t>
+  </si>
+  <si>
     <t>Ahmad Imam Khofi</t>
   </si>
   <si>
+    <t>Universitas Muhammadiyah Semarang</t>
+  </si>
+  <si>
+    <t>Teknik Elektro</t>
+  </si>
+  <si>
     <t>Ahmad Malikhul Khakim</t>
   </si>
   <si>
+    <t>Universitas Negeri Semarang</t>
+  </si>
+  <si>
+    <t>Psikologi</t>
+  </si>
+  <si>
     <t>Bagus Rifqi Ridho</t>
   </si>
   <si>
+    <t>Politeknik Harapan Bersama</t>
+  </si>
+  <si>
     <t>Bima Aji Maulana</t>
   </si>
   <si>
+    <t>Universitas Sebelas Maret</t>
+  </si>
+  <si>
+    <t>Manajemen Bisnis</t>
+  </si>
+  <si>
     <t>Christopher Prima</t>
   </si>
   <si>
+    <t>Universitas Amikom Purwokerto</t>
+  </si>
+  <si>
+    <t>Teknologi Informasi</t>
+  </si>
+  <si>
     <t>Dhiya Arwa Fadhila</t>
   </si>
   <si>
+    <t>Informatika</t>
+  </si>
+  <si>
     <t>Dinda Arum</t>
   </si>
   <si>
+    <t>Universitas Muhammadiyah Surakarta</t>
+  </si>
+  <si>
     <t>Dinda Regina Nofiar</t>
   </si>
   <si>
+    <t>Manajemen</t>
+  </si>
+  <si>
     <t>Faishal Bahy</t>
   </si>
   <si>
@@ -101,36 +143,75 @@
     <t>Fiyandhika Ridho Pratama</t>
   </si>
   <si>
+    <t>Universitas Amikom Yogyakarta</t>
+  </si>
+  <si>
+    <t>Sistem Informasi</t>
+  </si>
+  <si>
     <t>Hanin Atika Nurussyifa</t>
   </si>
   <si>
+    <t>Universitas Diponegoro</t>
+  </si>
+  <si>
+    <t>Akuntansi Perpajakan</t>
+  </si>
+  <si>
     <t>Khomsatun Natasyah</t>
   </si>
   <si>
+    <t>Pendidikan Geografi</t>
+  </si>
+  <si>
     <t>Lathifah Melita Santi</t>
   </si>
   <si>
+    <t>Pendidikan Bahasa Inggris</t>
+  </si>
+  <si>
     <t>Latifa Rachma</t>
   </si>
   <si>
+    <t>Sejarah</t>
+  </si>
+  <si>
     <t>Michael Setiawan</t>
   </si>
   <si>
+    <t>Teknik Komputer</t>
+  </si>
+  <si>
     <t>Muhammad Raihan Firmansyah</t>
   </si>
   <si>
     <t>Muhammad Ridho Heralti</t>
   </si>
   <si>
+    <t>Universitas Jenderal Soedirman</t>
+  </si>
+  <si>
+    <t>Matematika</t>
+  </si>
+  <si>
     <t>Muhammad Rifki Kurniawan</t>
   </si>
   <si>
+    <t>Universitas Pembangunan Nasional Veteran Yogyakarta</t>
+  </si>
+  <si>
+    <t>Ilmu Administrasi Bisnis</t>
+  </si>
+  <si>
     <t>Mutia Angraini</t>
   </si>
   <si>
     <t>Nadiyah Saidah</t>
   </si>
   <si>
+    <t>Universitas Alma Ata</t>
+  </si>
+  <si>
     <t>Nik Nor Allia</t>
   </si>
   <si>
@@ -143,6 +224,9 @@
     <t>Rizqy Ichlasul Amalia</t>
   </si>
   <si>
+    <t>Statistika</t>
+  </si>
+  <si>
     <t>Rousyan Afkar Irbah</t>
   </si>
   <si>
@@ -150,90 +234,6 @@
   </si>
   <si>
     <t>Wiyenti Halim</t>
-  </si>
-  <si>
-    <t>Universitas Dian Nuswantoro</t>
-  </si>
-  <si>
-    <t>Universitas Muhammadiyah Semarang</t>
-  </si>
-  <si>
-    <t>Universitas Negeri Semarang</t>
-  </si>
-  <si>
-    <t>Politeknik Harapan Bersama</t>
-  </si>
-  <si>
-    <t>Universitas Sebelas Maret</t>
-  </si>
-  <si>
-    <t>Universitas Amikom Purwokerto</t>
-  </si>
-  <si>
-    <t>Universitas Muhammadiyah Surakarta</t>
-  </si>
-  <si>
-    <t>Universitas Amikom Yogyakarta</t>
-  </si>
-  <si>
-    <t>Universitas Diponegoro</t>
-  </si>
-  <si>
-    <t>Universitas Jenderal Soedirman</t>
-  </si>
-  <si>
-    <t>Universitas Pembangunan Nasional Veteran Yogyakarta</t>
-  </si>
-  <si>
-    <t>Universitas Alma Ata</t>
-  </si>
-  <si>
-    <t>Teknik Informatika</t>
-  </si>
-  <si>
-    <t>Teknik Elektro</t>
-  </si>
-  <si>
-    <t>Psikologi</t>
-  </si>
-  <si>
-    <t>Manajemen Bisnis</t>
-  </si>
-  <si>
-    <t>Teknologi Informasi</t>
-  </si>
-  <si>
-    <t>Informatika</t>
-  </si>
-  <si>
-    <t>Manajemen</t>
-  </si>
-  <si>
-    <t>Sistem Informasi</t>
-  </si>
-  <si>
-    <t>Akuntansi Perpajakan</t>
-  </si>
-  <si>
-    <t>Pendidikan Geografi</t>
-  </si>
-  <si>
-    <t>Pendidikan Bahasa Inggris</t>
-  </si>
-  <si>
-    <t>Sejarah</t>
-  </si>
-  <si>
-    <t>Teknik Komputer</t>
-  </si>
-  <si>
-    <t>Matematika</t>
-  </si>
-  <si>
-    <t>Ilmu Administrasi Bisnis</t>
-  </si>
-  <si>
-    <t>Statistika</t>
   </si>
   <si>
     <t>Ilmu Sistem Informasi</t>
@@ -620,10 +620,10 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -636,28 +636,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -668,931 +668,819 @@
         <v>3725349</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>81392079914</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:I4" ca="1" si="0">RANDBETWEEN(60,100)</f>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>3801595</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>89524253715</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I3">
-        <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>3832337</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3">
         <v>85712555526</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>3763981</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>85161382552</v>
       </c>
       <c r="F5">
-        <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:I20" ca="1" si="1">RANDBETWEEN(60,100)</f>
         <v>90</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>3852379</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
         <v>87714476866</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:I30" ca="1" si="2">RANDBETWEEN(60,100)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="1"/>
         <v>75</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>3845534</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>82243039103</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>3841158</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5">
         <v>895422462944</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="I8">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>3788761</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3">
         <v>82185511649</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
         <v>3346764</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>85156045861</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I10">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2">
         <v>3447291</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4">
         <v>82260368898</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="I11">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2">
         <v>3841917</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3">
         <v>82118045113</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I12">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>3854585</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3">
         <v>82348877452</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2">
         <v>3623287</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3">
         <v>85703598708</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="I14">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2">
         <v>3439592</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>85866040215</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2">
         <v>3183443</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3">
         <v>82135254500</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2">
         <v>3761118</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3">
         <v>81548882108</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>3842035</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3">
         <v>89673942141</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I18">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2">
         <v>3762472</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3">
         <v>85803737732</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I19">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2">
         <v>3843259</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3">
         <v>85760004087</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I20">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2">
         <v>3813513</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3">
         <v>85291378856</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="2"/>
         <v>80</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I21">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2">
         <v>3643895</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3">
         <v>81328256132</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I22">
-        <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2">
         <v>3806913</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E23" s="6">
         <v>895325028877</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H23">
-        <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I23">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2">
         <v>3849134</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E24" s="3">
         <v>85718802418</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H24">
-        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="I24">
-        <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2">
         <v>3735191</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3">
         <v>81330435792</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H25">
-        <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I25">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2">
         <v>3842455</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E26" s="3">
         <v>83162498235</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I26">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2">
         <v>3299393</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3">
         <v>89506117922</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H27">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I27">
-        <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2">
         <v>3623281</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E28" s="3">
         <v>81213145463</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I28">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2">
         <v>3830944</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E29" s="4">
         <v>89647681473</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I29">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2">
         <v>3510247</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
@@ -1601,20 +1489,16 @@
         <v>895399776240</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I30">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99DF94B-2E7E-9C45-8850-84AFB65DE6E6}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82C9557-08B1-9C4E-AC2B-DA77BA6FCFF6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,16 +706,16 @@
         <v>89524253715</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -735,16 +735,16 @@
         <v>85712555526</v>
       </c>
       <c r="F4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -764,16 +764,16 @@
         <v>85161382552</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -796,13 +796,13 @@
         <v>80</v>
       </c>
       <c r="G6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82C9557-08B1-9C4E-AC2B-DA77BA6FCFF6}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B218DA-F78B-914E-A9AD-55E965EC13AC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>nama</t>
   </si>
@@ -237,6 +237,21 @@
   </si>
   <si>
     <t>Ilmu Sistem Informasi</t>
+  </si>
+  <si>
+    <t>Dummy 1</t>
+  </si>
+  <si>
+    <t>Dummy 2</t>
+  </si>
+  <si>
+    <t>Universitas A</t>
+  </si>
+  <si>
+    <t>Universitas B</t>
+  </si>
+  <si>
+    <t>Hubungan Internasional</t>
   </si>
 </sst>
 </file>
@@ -291,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,6 +314,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79F51F0-E72D-0946-A5F2-57911D67FA2F}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,17 +693,17 @@
       <c r="E2" s="3">
         <v>81392079914</v>
       </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2">
         <v>90</v>
-      </c>
-      <c r="H2">
-        <v>75</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -705,17 +722,17 @@
       <c r="E3" s="4">
         <v>89524253715</v>
       </c>
-      <c r="F3">
-        <v>70</v>
-      </c>
-      <c r="G3">
-        <v>85</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="2">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2">
         <v>80</v>
       </c>
-      <c r="I3">
-        <v>90</v>
+      <c r="H3" s="2">
+        <v>60</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -734,17 +751,17 @@
       <c r="E4" s="3">
         <v>85712555526</v>
       </c>
-      <c r="F4">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>70</v>
-      </c>
-      <c r="H4">
-        <v>90</v>
-      </c>
-      <c r="I4">
-        <v>70</v>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -763,17 +780,17 @@
       <c r="E5" s="3">
         <v>85161382552</v>
       </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>95</v>
-      </c>
-      <c r="H5">
-        <v>85</v>
-      </c>
-      <c r="I5">
+      <c r="F5" s="2">
         <v>60</v>
+      </c>
+      <c r="G5" s="2">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -792,17 +809,17 @@
       <c r="E6" s="3">
         <v>87714476866</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>80</v>
       </c>
-      <c r="G6">
-        <v>60</v>
-      </c>
-      <c r="H6">
-        <v>60</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="2">
         <v>90</v>
+      </c>
+      <c r="H6" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -821,17 +838,17 @@
       <c r="E7" s="3">
         <v>82243039103</v>
       </c>
-      <c r="F7">
-        <v>80</v>
-      </c>
-      <c r="G7">
-        <v>90</v>
-      </c>
-      <c r="H7">
-        <v>75</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
+      <c r="F7" s="2">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -850,17 +867,17 @@
       <c r="E8" s="5">
         <v>895422462944</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>80</v>
       </c>
-      <c r="G8">
-        <v>90</v>
-      </c>
-      <c r="H8">
-        <v>75</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
+      <c r="G8" s="2">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -879,17 +896,17 @@
       <c r="E9" s="3">
         <v>82185511649</v>
       </c>
-      <c r="F9">
-        <v>80</v>
-      </c>
-      <c r="G9">
-        <v>90</v>
-      </c>
-      <c r="H9">
-        <v>75</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -908,17 +925,17 @@
       <c r="E10" s="3">
         <v>85156045861</v>
       </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-      <c r="G10">
-        <v>90</v>
-      </c>
-      <c r="H10">
-        <v>75</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -937,17 +954,17 @@
       <c r="E11" s="4">
         <v>82260368898</v>
       </c>
-      <c r="F11">
-        <v>80</v>
-      </c>
-      <c r="G11">
-        <v>90</v>
-      </c>
-      <c r="H11">
-        <v>75</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -966,17 +983,17 @@
       <c r="E12" s="3">
         <v>82118045113</v>
       </c>
-      <c r="F12">
-        <v>80</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2">
+        <v>70</v>
+      </c>
+      <c r="H12" s="2">
+        <v>70</v>
+      </c>
+      <c r="I12" s="2">
         <v>90</v>
-      </c>
-      <c r="H12">
-        <v>75</v>
-      </c>
-      <c r="I12">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -995,17 +1012,17 @@
       <c r="E13" s="3">
         <v>82348877452</v>
       </c>
-      <c r="F13">
-        <v>80</v>
-      </c>
-      <c r="G13">
-        <v>90</v>
-      </c>
-      <c r="H13">
-        <v>75</v>
-      </c>
-      <c r="I13">
-        <v>100</v>
+      <c r="F13" s="2">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1024,17 +1041,17 @@
       <c r="E14" s="3">
         <v>85703598708</v>
       </c>
-      <c r="F14">
-        <v>80</v>
-      </c>
-      <c r="G14">
-        <v>90</v>
-      </c>
-      <c r="H14">
-        <v>75</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1053,17 +1070,17 @@
       <c r="E15" s="3">
         <v>85866040215</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>80</v>
       </c>
-      <c r="G15">
-        <v>90</v>
-      </c>
-      <c r="H15">
-        <v>75</v>
-      </c>
-      <c r="I15">
-        <v>100</v>
+      <c r="G15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1082,17 +1099,17 @@
       <c r="E16" s="3">
         <v>82135254500</v>
       </c>
-      <c r="F16">
-        <v>80</v>
-      </c>
-      <c r="G16">
-        <v>90</v>
-      </c>
-      <c r="H16">
-        <v>75</v>
-      </c>
-      <c r="I16">
-        <v>100</v>
+      <c r="F16" s="2">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1111,17 +1128,17 @@
       <c r="E17" s="3">
         <v>81548882108</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2">
+        <v>70</v>
+      </c>
+      <c r="I17" s="2">
         <v>80</v>
-      </c>
-      <c r="G17">
-        <v>90</v>
-      </c>
-      <c r="H17">
-        <v>75</v>
-      </c>
-      <c r="I17">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1140,17 +1157,17 @@
       <c r="E18" s="3">
         <v>89673942141</v>
       </c>
-      <c r="F18">
-        <v>80</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2">
         <v>90</v>
       </c>
-      <c r="H18">
-        <v>75</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="2">
         <v>100</v>
+      </c>
+      <c r="H18" s="2">
+        <v>90</v>
+      </c>
+      <c r="I18" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1169,16 +1186,16 @@
       <c r="E19" s="3">
         <v>85803737732</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2">
         <v>80</v>
       </c>
-      <c r="G19">
-        <v>90</v>
-      </c>
-      <c r="H19">
-        <v>75</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="2">
+        <v>80</v>
+      </c>
+      <c r="I19" s="2">
         <v>100</v>
       </c>
     </row>
@@ -1198,17 +1215,17 @@
       <c r="E20" s="3">
         <v>85760004087</v>
       </c>
-      <c r="F20">
-        <v>80</v>
-      </c>
-      <c r="G20">
-        <v>90</v>
-      </c>
-      <c r="H20">
-        <v>75</v>
-      </c>
-      <c r="I20">
-        <v>100</v>
+      <c r="F20" s="2">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" s="2">
+        <v>60</v>
+      </c>
+      <c r="I20" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1227,16 +1244,16 @@
       <c r="E21" s="3">
         <v>85291378856</v>
       </c>
-      <c r="F21">
-        <v>80</v>
-      </c>
-      <c r="G21">
-        <v>90</v>
-      </c>
-      <c r="H21">
-        <v>75</v>
-      </c>
-      <c r="I21">
+      <c r="F21" s="2">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2">
+        <v>40</v>
+      </c>
+      <c r="H21" s="2">
+        <v>70</v>
+      </c>
+      <c r="I21" s="2">
         <v>100</v>
       </c>
     </row>
@@ -1256,17 +1273,17 @@
       <c r="E22" s="3">
         <v>81328256132</v>
       </c>
-      <c r="F22">
-        <v>80</v>
-      </c>
-      <c r="G22">
-        <v>90</v>
-      </c>
-      <c r="H22">
-        <v>75</v>
-      </c>
-      <c r="I22">
-        <v>100</v>
+      <c r="F22" s="2">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1285,17 +1302,17 @@
       <c r="E23" s="6">
         <v>895325028877</v>
       </c>
-      <c r="F23">
-        <v>80</v>
-      </c>
-      <c r="G23">
-        <v>90</v>
-      </c>
-      <c r="H23">
-        <v>75</v>
-      </c>
-      <c r="I23">
-        <v>100</v>
+      <c r="F23" s="2">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2">
+        <v>50</v>
+      </c>
+      <c r="I23" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1314,17 +1331,17 @@
       <c r="E24" s="3">
         <v>85718802418</v>
       </c>
-      <c r="F24">
-        <v>80</v>
-      </c>
-      <c r="G24">
-        <v>90</v>
-      </c>
-      <c r="H24">
-        <v>75</v>
-      </c>
-      <c r="I24">
-        <v>100</v>
+      <c r="F24" s="2">
+        <v>40</v>
+      </c>
+      <c r="G24" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" s="2">
+        <v>60</v>
+      </c>
+      <c r="I24" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1343,16 +1360,16 @@
       <c r="E25" s="3">
         <v>81330435792</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2">
         <v>80</v>
       </c>
-      <c r="G25">
-        <v>90</v>
-      </c>
-      <c r="H25">
-        <v>75</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" s="2">
         <v>100</v>
       </c>
     </row>
@@ -1372,16 +1389,16 @@
       <c r="E26" s="3">
         <v>83162498235</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>80</v>
       </c>
-      <c r="G26">
-        <v>90</v>
-      </c>
-      <c r="H26">
-        <v>75</v>
-      </c>
-      <c r="I26">
+      <c r="G26" s="2">
+        <v>70</v>
+      </c>
+      <c r="H26" s="2">
+        <v>50</v>
+      </c>
+      <c r="I26" s="2">
         <v>100</v>
       </c>
     </row>
@@ -1401,17 +1418,17 @@
       <c r="E27" s="3">
         <v>89506117922</v>
       </c>
-      <c r="F27">
-        <v>80</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="2">
         <v>90</v>
       </c>
-      <c r="H27">
-        <v>75</v>
-      </c>
-      <c r="I27">
+      <c r="G27" s="2">
+        <v>60</v>
+      </c>
+      <c r="H27" s="2">
         <v>100</v>
+      </c>
+      <c r="I27" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1430,17 +1447,17 @@
       <c r="E28" s="3">
         <v>81213145463</v>
       </c>
-      <c r="F28">
-        <v>80</v>
-      </c>
-      <c r="G28">
-        <v>90</v>
-      </c>
-      <c r="H28">
-        <v>75</v>
-      </c>
-      <c r="I28">
-        <v>100</v>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
+        <v>10</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1459,17 +1476,17 @@
       <c r="E29" s="4">
         <v>89647681473</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>80</v>
       </c>
-      <c r="G29">
-        <v>90</v>
-      </c>
-      <c r="H29">
-        <v>75</v>
-      </c>
-      <c r="I29">
-        <v>100</v>
+      <c r="G29" s="2">
+        <v>70</v>
+      </c>
+      <c r="H29" s="2">
+        <v>70</v>
+      </c>
+      <c r="I29" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1488,16 +1505,74 @@
       <c r="E30" s="6">
         <v>895399776240</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3000001</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="7">
+        <v>82225700071</v>
+      </c>
+      <c r="F31" s="2">
+        <v>90</v>
+      </c>
+      <c r="G31" s="2">
         <v>80</v>
       </c>
-      <c r="G30">
-        <v>90</v>
-      </c>
-      <c r="H30">
+      <c r="H31" s="2">
+        <v>85</v>
+      </c>
+      <c r="I31" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3000002</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="7">
+        <v>82225700071</v>
+      </c>
+      <c r="F32" s="2">
+        <v>80</v>
+      </c>
+      <c r="G32" s="2">
+        <v>85</v>
+      </c>
+      <c r="H32" s="2">
         <v>75</v>
       </c>
-      <c r="I30">
+      <c r="I32" s="2">
         <v>100</v>
       </c>
     </row>

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,7 +314,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F32" sqref="F32"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,7 +1530,7 @@
       <c r="D31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="4">
         <v>82225700071</v>
       </c>
       <c r="F31" s="2">
@@ -1560,7 +1559,7 @@
       <c r="D32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="4">
         <v>82225700071</v>
       </c>
       <c r="F32" s="2">

--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptorbitventurainodnesia-my.sharepoint.com/personal/rizal_orbitfutureacademy_sch_id/Documents/Afrizal Meka/Project Pribadi/aplikasi-cek-nilai-posttest/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B218DA-F78B-914E-A9AD-55E965EC13AC}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{05BD83B4-5392-4445-AAC5-12E6CFF7250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCB39318-A4AA-EA44-A0E1-154DD0C51527}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{D1024BA5-EBE1-5D48-A10D-EB249C632C01}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="posttest_2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -636,7 +636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E23" sqref="E23"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
